--- a/data/exercises/sculpd_exercise_processed.xlsx
+++ b/data/exercises/sculpd_exercise_processed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="425">
   <si>
     <t>Exercise Name</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Crossover Cable Pull</t>
   </si>
   <si>
-    <t>Cable Machine (Dual Stack)</t>
-  </si>
-  <si>
     <t>Upper Lats 50%, Rear Delts 25%, Rhomboids 15%, Biceps 10%</t>
   </si>
   <si>
@@ -214,27 +211,18 @@
     <t>Single Arm DB Row</t>
   </si>
   <si>
-    <t>Dumbbell, Flat Bench or Knee Support</t>
-  </si>
-  <si>
     <t>Mid Lats 50%, Rhomboids 25%, Rear Delts 15%, Biceps 10%</t>
   </si>
   <si>
     <t>Deficit Single Arm DB Row</t>
   </si>
   <si>
-    <t>Dumbbell, Raised Platform or Plates</t>
-  </si>
-  <si>
     <t>Mid/Lower Lats 55%, Rhomboids 25%, Rear Delts 10%, Biceps 10%</t>
   </si>
   <si>
     <t>DB Pullover</t>
   </si>
   <si>
-    <t>Dumbbell, Flat Bench</t>
-  </si>
-  <si>
     <t>Lats 65%, Teres Major 15%, Chest 10%, Core 10%</t>
   </si>
   <si>
@@ -319,36 +307,24 @@
     <t>Plate Loaded Low Row</t>
   </si>
   <si>
-    <t>Row Machine (Low)</t>
-  </si>
-  <si>
     <t>Lats 50%, Rhomboids 25%, Biceps 15%, Rear Delts 10%</t>
   </si>
   <si>
     <t>Plate Loaded Low Row (Unilateral)</t>
   </si>
   <si>
-    <t>Row Machine (Low, Single Arm)</t>
-  </si>
-  <si>
     <t>Lats 55%, Rhomboids 25%, Biceps 10%, Rear Delts 10%</t>
   </si>
   <si>
     <t>Plate Loaded Mid Row</t>
   </si>
   <si>
-    <t>Row Machine (Mid)</t>
-  </si>
-  <si>
     <t>Mid Back 50%, Rhomboids 30%, Rear Delts 10%, Biceps 10%</t>
   </si>
   <si>
     <t>Plate Loaded Mid Row (Unilateral)</t>
   </si>
   <si>
-    <t>Row Machine (Mid, Single Arm)</t>
-  </si>
-  <si>
     <t>Mid Back 55%, Rhomboids 25%, Rear Delts 10%, Biceps 10%</t>
   </si>
   <si>
@@ -361,9 +337,6 @@
     <t>Plate Loaded Pulldown (Unilateral)</t>
   </si>
   <si>
-    <t>Pulldown Machine (Single Arm)</t>
-  </si>
-  <si>
     <t>Lats 65%, Biceps 15%, Rear Delts 10%, Rhomboids 10%</t>
   </si>
   <si>
@@ -628,9 +601,6 @@
     <t>DB Overhead Extension</t>
   </si>
   <si>
-    <t>Dumbbell, Incline Bench</t>
-  </si>
-  <si>
     <t>Triceps (Long Head) 65%, Medial Head 25%, Core 10%</t>
   </si>
   <si>
@@ -751,9 +721,6 @@
     <t>Concentration Curls</t>
   </si>
   <si>
-    <t>Dumbbell</t>
-  </si>
-  <si>
     <t>Biceps (Short Head) 70%, Long Head 20%, Forearms 10%</t>
   </si>
   <si>
@@ -787,9 +754,6 @@
     <t>Side Facing Preacher Hammer Curls</t>
   </si>
   <si>
-    <t>Dumbbell, Preacher Bench</t>
-  </si>
-  <si>
     <t>Biceps (Brachialis) 65%, Forearms 20%, Short Head 15%</t>
   </si>
   <si>
@@ -1246,9 +1210,6 @@
     <t>Russian Twist</t>
   </si>
   <si>
-    <t>Medicine Ball or Dumbbell</t>
-  </si>
-  <si>
     <t>Obliques 60%, Rectus Abdominis 30%, Hip Flexors 10%</t>
   </si>
   <si>
@@ -1279,24 +1240,12 @@
     <t>Dumbbells, Platform</t>
   </si>
   <si>
-    <t>Dumbbell, Platform</t>
-  </si>
-  <si>
-    <t>DB, Smith or Rack Support</t>
-  </si>
-  <si>
-    <t>Cable, cuffs</t>
-  </si>
-  <si>
     <t>Dumbbells, Kettlebells</t>
   </si>
   <si>
     <t>Barbell with Rope, Weight Plate</t>
   </si>
   <si>
-    <t>Towel, DB or Kettlebell</t>
-  </si>
-  <si>
     <t>Exercise Group</t>
   </si>
   <si>
@@ -1322,6 +1271,24 @@
   </si>
   <si>
     <t>Forearms</t>
+  </si>
+  <si>
+    <t>Row Machine</t>
+  </si>
+  <si>
+    <t>Cable, Cuffs</t>
+  </si>
+  <si>
+    <t>Dumbbells, Flat Bench or Knee Support</t>
+  </si>
+  <si>
+    <t>Dumbbells, Smith or Rack Support</t>
+  </si>
+  <si>
+    <t>Medicine Ball or Dumbbells</t>
+  </si>
+  <si>
+    <t>Towel, Dumbbells or Kettlebell</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1333,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1499,11 +1466,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1523,6 +1521,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1741,8 +1742,8 @@
   <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I163" sqref="I163"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1767,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1790,7 +1791,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1810,7 +1811,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1830,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1850,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1870,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1890,7 +1891,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1910,7 +1911,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1930,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1950,7 +1951,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1970,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1990,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2010,7 +2011,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2030,7 +2031,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2050,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2070,7 +2071,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2090,7 +2091,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2110,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2130,7 +2131,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2150,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2158,24 +2159,24 @@
         <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>48</v>
@@ -2184,361 +2185,361 @@
         <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>421</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>89</v>
+      <c r="E35" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>101</v>
+        <v>419</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>428</v>
+        <v>97</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>419</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>428</v>
+      <c r="E37" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>107</v>
+        <v>419</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>428</v>
+        <v>101</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>110</v>
+        <v>419</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>428</v>
+        <v>103</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>7</v>
@@ -2546,156 +2547,156 @@
       <c r="D40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>428</v>
+      <c r="E40" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>428</v>
+        <v>107</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>428</v>
+        <v>101</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>119</v>
+      <c r="A43" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>19</v>
@@ -2704,18 +2705,18 @@
         <v>14</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>43</v>
@@ -2724,18 +2725,18 @@
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>19</v>
@@ -2744,18 +2745,18 @@
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>43</v>
@@ -2764,18 +2765,18 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>19</v>
@@ -2784,18 +2785,18 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>6</v>
@@ -2804,18 +2805,18 @@
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>6</v>
@@ -2824,18 +2825,18 @@
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>6</v>
@@ -2844,18 +2845,18 @@
         <v>26</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>6</v>
@@ -2864,18 +2865,18 @@
         <v>26</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>6</v>
@@ -2884,298 +2885,298 @@
         <v>26</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>48</v>
@@ -3184,18 +3185,18 @@
         <v>7</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>51</v>
@@ -3204,18 +3205,18 @@
         <v>7</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>43</v>
@@ -3224,18 +3225,18 @@
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>19</v>
@@ -3244,38 +3245,38 @@
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>6</v>
@@ -3284,18 +3285,18 @@
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>6</v>
@@ -3304,18 +3305,18 @@
         <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>48</v>
@@ -3324,518 +3325,518 @@
         <v>14</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>19</v>
@@ -3844,18 +3845,18 @@
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>19</v>
@@ -3864,18 +3865,18 @@
         <v>26</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>19</v>
@@ -3884,18 +3885,18 @@
         <v>26</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>48</v>
@@ -3904,238 +3905,238 @@
         <v>14</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>19</v>
@@ -4144,18 +4145,18 @@
         <v>26</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>19</v>
@@ -4164,78 +4165,78 @@
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>19</v>
@@ -4244,38 +4245,38 @@
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>6</v>
@@ -4284,18 +4285,18 @@
         <v>7</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>6</v>
@@ -4304,18 +4305,18 @@
         <v>26</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>51</v>
@@ -4324,498 +4325,498 @@
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E134" s="13" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="E138" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F142" s="16" t="s">
         <v>417</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F142" s="16" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F148" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>51</v>
@@ -4824,198 +4825,198 @@
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F162" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>422</v>
@@ -5024,198 +5025,198 @@
         <v>14</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F164" s="16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F166" s="16" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F168" s="16" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F172" s="16" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F173" s="16" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>6</v>
@@ -5224,13 +5225,13 @@
         <v>14</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F174" s="17" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/data/exercises/sculpd_exercise_processed.xlsx
+++ b/data/exercises/sculpd_exercise_processed.xlsx
@@ -1742,8 +1742,8 @@
   <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
